--- a/project1manual.xlsx
+++ b/project1manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dcshare\BootCamp2\QA- BootCamp 2\4383-Haroon-Butt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD14862-4A62-4022-ADA7-247403314346}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC801D-061D-4672-8F1B-DC5F86AA1407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{94BB3DF6-4181-4A2B-8D6E-A8C75808E833}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{94BB3DF6-4181-4A2B-8D6E-A8C75808E833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="248">
   <si>
     <t>login 1-&gt;2</t>
   </si>
@@ -674,6 +675,105 @@
   </si>
   <si>
     <t>20 AND 100</t>
+  </si>
+  <si>
+    <t>EQUILIANCE CLASSES FOR LEAVES</t>
+  </si>
+  <si>
+    <t>DROPDOWN OPTIONS ONLY</t>
+  </si>
+  <si>
+    <t>YEARS NOT IN DROPDOWN</t>
+  </si>
+  <si>
+    <t>MONTHS AND DAYS NOT ALLOWED</t>
+  </si>
+  <si>
+    <t>YEAR FORMAT (YYYY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRONG FORMAT </t>
+  </si>
+  <si>
+    <t>BOUNDARY VALUE ANALYSIS FOR LEAVES</t>
+  </si>
+  <si>
+    <t>2019 AND 2021</t>
+  </si>
+  <si>
+    <t>2017 AND 2023</t>
+  </si>
+  <si>
+    <t>2018 AND 2022</t>
+  </si>
+  <si>
+    <t>{2017,2023,2021}</t>
+  </si>
+  <si>
+    <t>EQUILIANCE CLASSES FOR HOLIDAYS</t>
+  </si>
+  <si>
+    <t>EQUILIANCE CLASSES FOR ATTENDENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NUMBERS NOT ALLOWED</t>
+  </si>
+  <si>
+    <t>SPECIAL CHARACTERS ARE NOT ALLOWED</t>
+  </si>
+  <si>
+    <t>TEST POINTS</t>
+  </si>
+  <si>
+    <t>CHECK LOGIN WITH VALID USERNAME AND PASSWORD</t>
+  </si>
+  <si>
+    <t>CHECK LOGIN WITH INVALID USERNAME AND VALID PASSWORD</t>
+  </si>
+  <si>
+    <t>CHECK LOGIN WITH VALID USERNAME AND INVALID PASSWORD</t>
+  </si>
+  <si>
+    <t>CHECK LOGIN WITH INVALID PASSWORD AND INVALID USERNAME</t>
+  </si>
+  <si>
+    <t>CHECK LOGOUT BUTTON IS IT LOGOUT OR NOT</t>
+  </si>
+  <si>
+    <t>CHECK CHANGE PASSWORD BUTTON REDIRECTING TO CHANGE PASSWORD PAGE OR NOT</t>
+  </si>
+  <si>
+    <t>CHECK BY PUTTING DIFFERENT PASSWORDS ON NEW PASSWORD AND CONFIRM PASSWORD</t>
+  </si>
+  <si>
+    <t>CHECK NEW PASSWORD AND CONFIRM PASSWORD FIELD IS IT ACCEPTS PASSWORD FORMAT</t>
+  </si>
+  <si>
+    <t>CHECK LOGIN AFTER CHANGING THE PASSWORD WITH OLD PASSWORD</t>
+  </si>
+  <si>
+    <t>CHECK LOGIN AFTER CHANGING THE PASSWORD WITH NEW PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHECK UPLOADING THE PICTURE OF BIGGER SIZE</t>
+  </si>
+  <si>
+    <t>CHECK UPLOADING PICTURE OF REQUIRED SIZE</t>
+  </si>
+  <si>
+    <t>CHECK ENTERING YOUR DETAILS LIKE USERNAME ,EMAIL ,PHONENUMBER ETC</t>
+  </si>
+  <si>
+    <t>CHECK AFTER CLICKING ON SAVE BUTTON OF DETAILS</t>
+  </si>
+  <si>
+    <t>CHECK DASHBOARD BUTTON IS WORKING OR NOT</t>
+  </si>
+  <si>
+    <t>CHECK PROFILE BUTTON ON DASHBOARD WORKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK APPLY LEAVES BUTTON ON DASHBOARD </t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85893171-71D2-46C2-844A-E0872D3B2E29}">
   <dimension ref="A35:A161"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="T167" sqref="T167"/>
     </sheetView>
   </sheetViews>
@@ -1402,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACC23C9-5BF6-4CCD-8BA2-9D5AC9A6A3E0}">
   <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -1729,7 +1829,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1872,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01538B3-1162-4B1E-B84D-AD1F07520E8C}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,17 +2356,132 @@
         <v>207</v>
       </c>
     </row>
+    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D1EDE4-47AB-4AFA-A252-3B5CFA9759D0}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,10 +2757,139 @@
         <v>214</v>
       </c>
     </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" display="{HAROON@GMAIL.COM" xr:uid="{3E30E2F6-5A01-4F8E-BEB2-FD584BB4D1BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56214DD-1F36-4F9E-8D0A-981A23440309}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>